--- a/attendance-files/SIP/SIP (D) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (D) Attendance Sheet.xlsx
@@ -1280,13 +1280,15 @@
       <c r="E7" s="24">
         <v>1.0</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26">
         <f t="shared" ref="J7:J80" si="1">SUM(E7:I7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="26"/>
     </row>
@@ -1307,13 +1309,15 @@
       <c r="E8" s="24">
         <v>1.0</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="26"/>
     </row>
@@ -1334,13 +1338,15 @@
       <c r="E9" s="24">
         <v>1.0</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="26"/>
     </row>
@@ -1361,13 +1367,15 @@
       <c r="E10" s="24">
         <v>0.0</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="26"/>
     </row>
@@ -1388,13 +1396,15 @@
       <c r="E11" s="24">
         <v>1.0</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="26"/>
     </row>
@@ -1415,13 +1425,15 @@
       <c r="E12" s="24">
         <v>1.0</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="26"/>
     </row>
@@ -1442,13 +1454,15 @@
       <c r="E13" s="24">
         <v>1.0</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="26"/>
     </row>
@@ -1469,13 +1483,15 @@
       <c r="E14" s="24">
         <v>1.0</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="26"/>
     </row>
@@ -1496,13 +1512,15 @@
       <c r="E15" s="24">
         <v>0.0</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="26"/>
     </row>
@@ -1523,13 +1541,15 @@
       <c r="E16" s="24">
         <v>1.0</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -1550,13 +1570,15 @@
       <c r="E17" s="24">
         <v>0.0</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="26"/>
     </row>
@@ -1577,13 +1599,15 @@
       <c r="E18" s="24">
         <v>0.0</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="26"/>
     </row>
@@ -1604,13 +1628,15 @@
       <c r="E19" s="24">
         <v>1.0</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="26"/>
     </row>
@@ -1631,7 +1657,9 @@
       <c r="E20" s="24">
         <v>0.0</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="24">
+        <v>0.0</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -1658,13 +1686,15 @@
       <c r="E21" s="24">
         <v>1.0</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="26"/>
     </row>
@@ -1685,13 +1715,15 @@
       <c r="E22" s="24">
         <v>0.0</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="26"/>
     </row>
@@ -1712,13 +1744,15 @@
       <c r="E23" s="24">
         <v>1.0</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="26"/>
     </row>
@@ -1739,13 +1773,15 @@
       <c r="E24" s="24">
         <v>0.0</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="26"/>
     </row>
@@ -1766,13 +1802,15 @@
       <c r="E25" s="24">
         <v>0.0</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="26"/>
     </row>
@@ -1793,13 +1831,15 @@
       <c r="E26" s="24">
         <v>0.0</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="26"/>
     </row>
@@ -1820,13 +1860,15 @@
       <c r="E27" s="24">
         <v>0.0</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="26"/>
     </row>
@@ -1847,13 +1889,15 @@
       <c r="E28" s="24">
         <v>0.0</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="26"/>
     </row>
@@ -1874,13 +1918,15 @@
       <c r="E29" s="24">
         <v>1.0</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="26"/>
     </row>
@@ -1901,13 +1947,15 @@
       <c r="E30" s="24">
         <v>1.0</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="26"/>
     </row>
@@ -1928,13 +1976,15 @@
       <c r="E31" s="24">
         <v>1.0</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="26"/>
     </row>
@@ -1955,13 +2005,15 @@
       <c r="E32" s="24">
         <v>1.0</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="26"/>
     </row>
@@ -1982,13 +2034,15 @@
       <c r="E33" s="24">
         <v>0.0</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="26"/>
     </row>
@@ -2009,13 +2063,15 @@
       <c r="E34" s="24">
         <v>1.0</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="26"/>
     </row>
@@ -2036,13 +2092,15 @@
       <c r="E35" s="24">
         <v>1.0</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="26"/>
     </row>
@@ -2063,13 +2121,15 @@
       <c r="E36" s="24">
         <v>1.0</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="26"/>
     </row>
@@ -2090,13 +2150,15 @@
       <c r="E37" s="24">
         <v>0.0</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="26"/>
     </row>
@@ -2117,13 +2179,15 @@
       <c r="E38" s="24">
         <v>1.0</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="26"/>
     </row>
@@ -2144,13 +2208,15 @@
       <c r="E39" s="24">
         <v>0.0</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="26"/>
     </row>
@@ -2171,13 +2237,15 @@
       <c r="E40" s="24">
         <v>1.0</v>
       </c>
-      <c r="F40" s="25"/>
+      <c r="F40" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="26"/>
     </row>
@@ -2198,13 +2266,15 @@
       <c r="E41" s="24">
         <v>0.0</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="26"/>
     </row>
@@ -2225,13 +2295,15 @@
       <c r="E42" s="24">
         <v>1.0</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="26"/>
     </row>
@@ -2252,13 +2324,15 @@
       <c r="E43" s="24">
         <v>1.0</v>
       </c>
-      <c r="F43" s="25"/>
+      <c r="F43" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="26"/>
     </row>
@@ -2279,13 +2353,15 @@
       <c r="E44" s="24">
         <v>0.0</v>
       </c>
-      <c r="F44" s="25"/>
+      <c r="F44" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="26"/>
     </row>
@@ -2306,13 +2382,15 @@
       <c r="E45" s="24">
         <v>1.0</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="26"/>
     </row>
@@ -2333,13 +2411,15 @@
       <c r="E46" s="24">
         <v>0.0</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="26"/>
     </row>
@@ -2360,13 +2440,15 @@
       <c r="E47" s="24">
         <v>1.0</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" s="26"/>
     </row>
@@ -2387,13 +2469,15 @@
       <c r="E48" s="24">
         <v>1.0</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="26"/>
     </row>
@@ -2414,13 +2498,15 @@
       <c r="E49" s="24">
         <v>1.0</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="26"/>
     </row>
@@ -2441,13 +2527,15 @@
       <c r="E50" s="24">
         <v>1.0</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" s="26"/>
     </row>
@@ -2468,13 +2556,15 @@
       <c r="E51" s="24">
         <v>1.0</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="26"/>
     </row>
@@ -2495,7 +2585,9 @@
       <c r="E52" s="24">
         <v>1.0</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="24">
+        <v>0.0</v>
+      </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
@@ -2522,13 +2614,15 @@
       <c r="E53" s="24">
         <v>1.0</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" s="26"/>
     </row>
@@ -2549,13 +2643,15 @@
       <c r="E54" s="24">
         <v>1.0</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="26"/>
     </row>
@@ -2576,13 +2672,15 @@
       <c r="E55" s="24">
         <v>0.0</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="26"/>
     </row>
@@ -2603,13 +2701,15 @@
       <c r="E56" s="24">
         <v>0.0</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="26"/>
     </row>
@@ -2630,13 +2730,15 @@
       <c r="E57" s="24">
         <v>1.0</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="26"/>
     </row>
@@ -2657,13 +2759,15 @@
       <c r="E58" s="24">
         <v>0.0</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="26"/>
     </row>
@@ -2684,13 +2788,15 @@
       <c r="E59" s="24">
         <v>0.0</v>
       </c>
-      <c r="F59" s="25"/>
+      <c r="F59" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="26"/>
     </row>
@@ -2711,13 +2817,15 @@
       <c r="E60" s="24">
         <v>1.0</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="26"/>
     </row>
@@ -2738,13 +2846,15 @@
       <c r="E61" s="24">
         <v>0.0</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="26"/>
     </row>
@@ -2765,13 +2875,15 @@
       <c r="E62" s="24">
         <v>1.0</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="26"/>
     </row>
@@ -2792,13 +2904,15 @@
       <c r="E63" s="24">
         <v>1.0</v>
       </c>
-      <c r="F63" s="25"/>
+      <c r="F63" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="26"/>
     </row>
@@ -2819,13 +2933,15 @@
       <c r="E64" s="24">
         <v>0.0</v>
       </c>
-      <c r="F64" s="25"/>
+      <c r="F64" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="26"/>
     </row>
@@ -2846,13 +2962,15 @@
       <c r="E65" s="24">
         <v>0.0</v>
       </c>
-      <c r="F65" s="25"/>
+      <c r="F65" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="26"/>
     </row>
@@ -2873,13 +2991,15 @@
       <c r="E66" s="24">
         <v>0.0</v>
       </c>
-      <c r="F66" s="25"/>
+      <c r="F66" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="26"/>
     </row>
@@ -2900,13 +3020,15 @@
       <c r="E67" s="24">
         <v>0.0</v>
       </c>
-      <c r="F67" s="25"/>
+      <c r="F67" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="26"/>
     </row>
@@ -2927,13 +3049,15 @@
       <c r="E68" s="24">
         <v>1.0</v>
       </c>
-      <c r="F68" s="25"/>
+      <c r="F68" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" s="26"/>
     </row>
@@ -2954,13 +3078,15 @@
       <c r="E69" s="24">
         <v>1.0</v>
       </c>
-      <c r="F69" s="25"/>
+      <c r="F69" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="26"/>
     </row>
@@ -2981,13 +3107,15 @@
       <c r="E70" s="24">
         <v>1.0</v>
       </c>
-      <c r="F70" s="25"/>
+      <c r="F70" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" s="26"/>
     </row>
@@ -3008,13 +3136,15 @@
       <c r="E71" s="24">
         <v>1.0</v>
       </c>
-      <c r="F71" s="25"/>
+      <c r="F71" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" s="26"/>
     </row>
@@ -3035,13 +3165,15 @@
       <c r="E72" s="24">
         <v>1.0</v>
       </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="26"/>
     </row>
@@ -3062,7 +3194,9 @@
       <c r="E73" s="24">
         <v>1.0</v>
       </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="24">
+        <v>0.0</v>
+      </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
@@ -3089,13 +3223,15 @@
       <c r="E74" s="24">
         <v>0.0</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="26"/>
     </row>
@@ -3116,13 +3252,15 @@
       <c r="E75" s="24">
         <v>0.0</v>
       </c>
-      <c r="F75" s="25"/>
+      <c r="F75" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="26"/>
     </row>
@@ -3143,13 +3281,15 @@
       <c r="E76" s="24">
         <v>1.0</v>
       </c>
-      <c r="F76" s="25"/>
+      <c r="F76" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="26"/>
     </row>
@@ -3170,13 +3310,15 @@
       <c r="E77" s="24">
         <v>0.0</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="26"/>
     </row>
@@ -3197,13 +3339,15 @@
       <c r="E78" s="24">
         <v>1.0</v>
       </c>
-      <c r="F78" s="25"/>
+      <c r="F78" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" s="26"/>
     </row>
@@ -3224,13 +3368,15 @@
       <c r="E79" s="24">
         <v>0.0</v>
       </c>
-      <c r="F79" s="25"/>
+      <c r="F79" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="26"/>
     </row>
@@ -3251,13 +3397,15 @@
       <c r="E80" s="24">
         <v>1.0</v>
       </c>
-      <c r="F80" s="25"/>
+      <c r="F80" s="24">
+        <v>1.0</v>
+      </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="26"/>
     </row>

--- a/attendance-files/SIP/SIP (D) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (D) Attendance Sheet.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lmgDQiW5+6yiqWUkDk6aXhHateScshv1/vdEv/pEiDY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2KtSWbYltjeDcI/dfKgr4oSenTtUsH8bbJhFDpmcStA="/>
     </ext>
   </extLst>
 </workbook>
@@ -1283,12 +1283,14 @@
       <c r="F7" s="24">
         <v>1.0</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26">
         <f t="shared" ref="J7:J80" si="1">SUM(E7:I7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="26"/>
     </row>
@@ -1312,12 +1314,14 @@
       <c r="F8" s="24">
         <v>1.0</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="26"/>
     </row>
@@ -1341,12 +1345,14 @@
       <c r="F9" s="24">
         <v>1.0</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="26"/>
     </row>
@@ -1370,12 +1376,14 @@
       <c r="F10" s="24">
         <v>1.0</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="26"/>
     </row>
@@ -1399,7 +1407,9 @@
       <c r="F11" s="24">
         <v>1.0</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26">
@@ -1428,12 +1438,14 @@
       <c r="F12" s="24">
         <v>1.0</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="26"/>
     </row>
@@ -1457,12 +1469,14 @@
       <c r="F13" s="24">
         <v>1.0</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="26"/>
     </row>
@@ -1486,12 +1500,14 @@
       <c r="F14" s="24">
         <v>1.0</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="26"/>
     </row>
@@ -1515,12 +1531,14 @@
       <c r="F15" s="24">
         <v>1.0</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="26"/>
     </row>
@@ -1544,7 +1562,9 @@
       <c r="F16" s="24">
         <v>1.0</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26">
@@ -1573,12 +1593,14 @@
       <c r="F17" s="24">
         <v>1.0</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="26"/>
     </row>
@@ -1602,12 +1624,14 @@
       <c r="F18" s="24">
         <v>1.0</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="26"/>
     </row>
@@ -1631,7 +1655,9 @@
       <c r="F19" s="24">
         <v>1.0</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26">
@@ -1660,12 +1686,14 @@
       <c r="F20" s="24">
         <v>0.0</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="26"/>
     </row>
@@ -1689,12 +1717,14 @@
       <c r="F21" s="24">
         <v>1.0</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="26"/>
     </row>
@@ -1718,12 +1748,14 @@
       <c r="F22" s="24">
         <v>1.0</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="26"/>
     </row>
@@ -1747,12 +1779,14 @@
       <c r="F23" s="24">
         <v>1.0</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" s="26"/>
     </row>
@@ -1776,12 +1810,14 @@
       <c r="F24" s="24">
         <v>1.0</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="26"/>
     </row>
@@ -1805,12 +1841,14 @@
       <c r="F25" s="24">
         <v>1.0</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="26"/>
     </row>
@@ -1834,12 +1872,14 @@
       <c r="F26" s="24">
         <v>1.0</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="26"/>
     </row>
@@ -1863,7 +1903,9 @@
       <c r="F27" s="24">
         <v>1.0</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26">
@@ -1892,12 +1934,14 @@
       <c r="F28" s="24">
         <v>1.0</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="26"/>
     </row>
@@ -1921,12 +1965,14 @@
       <c r="F29" s="24">
         <v>1.0</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" s="26"/>
     </row>
@@ -1950,12 +1996,14 @@
       <c r="F30" s="24">
         <v>1.0</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="26"/>
     </row>
@@ -1979,12 +2027,14 @@
       <c r="F31" s="24">
         <v>1.0</v>
       </c>
-      <c r="G31" s="25"/>
+      <c r="G31" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="26"/>
     </row>
@@ -2008,12 +2058,14 @@
       <c r="F32" s="24">
         <v>1.0</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="26"/>
     </row>
@@ -2037,12 +2089,14 @@
       <c r="F33" s="24">
         <v>1.0</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="26"/>
     </row>
@@ -2066,12 +2120,14 @@
       <c r="F34" s="24">
         <v>1.0</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="26"/>
     </row>
@@ -2095,12 +2151,14 @@
       <c r="F35" s="24">
         <v>1.0</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="26"/>
     </row>
@@ -2124,12 +2182,14 @@
       <c r="F36" s="24">
         <v>1.0</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" s="26"/>
     </row>
@@ -2153,12 +2213,14 @@
       <c r="F37" s="24">
         <v>1.0</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="26"/>
     </row>
@@ -2182,12 +2244,14 @@
       <c r="F38" s="24">
         <v>1.0</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" s="26"/>
     </row>
@@ -2211,12 +2275,14 @@
       <c r="F39" s="24">
         <v>1.0</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="26"/>
     </row>
@@ -2240,12 +2306,14 @@
       <c r="F40" s="24">
         <v>1.0</v>
       </c>
-      <c r="G40" s="25"/>
+      <c r="G40" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="26"/>
     </row>
@@ -2269,12 +2337,14 @@
       <c r="F41" s="24">
         <v>1.0</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="26"/>
     </row>
@@ -2298,12 +2368,14 @@
       <c r="F42" s="24">
         <v>1.0</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" s="26"/>
     </row>
@@ -2327,12 +2399,14 @@
       <c r="F43" s="24">
         <v>1.0</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" s="26"/>
     </row>
@@ -2356,12 +2430,14 @@
       <c r="F44" s="24">
         <v>1.0</v>
       </c>
-      <c r="G44" s="25"/>
+      <c r="G44" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="26"/>
     </row>
@@ -2385,12 +2461,14 @@
       <c r="F45" s="24">
         <v>1.0</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="26"/>
     </row>
@@ -2414,12 +2492,14 @@
       <c r="F46" s="24">
         <v>1.0</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="26"/>
     </row>
@@ -2443,12 +2523,14 @@
       <c r="F47" s="24">
         <v>1.0</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="26"/>
     </row>
@@ -2472,12 +2554,14 @@
       <c r="F48" s="24">
         <v>1.0</v>
       </c>
-      <c r="G48" s="25"/>
+      <c r="G48" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" s="26"/>
     </row>
@@ -2501,12 +2585,14 @@
       <c r="F49" s="24">
         <v>1.0</v>
       </c>
-      <c r="G49" s="25"/>
+      <c r="G49" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" s="26"/>
     </row>
@@ -2530,12 +2616,14 @@
       <c r="F50" s="24">
         <v>1.0</v>
       </c>
-      <c r="G50" s="25"/>
+      <c r="G50" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K50" s="26"/>
     </row>
@@ -2559,7 +2647,9 @@
       <c r="F51" s="24">
         <v>1.0</v>
       </c>
-      <c r="G51" s="25"/>
+      <c r="G51" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="26">
@@ -2588,12 +2678,14 @@
       <c r="F52" s="24">
         <v>0.0</v>
       </c>
-      <c r="G52" s="25"/>
+      <c r="G52" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="26"/>
     </row>
@@ -2617,7 +2709,9 @@
       <c r="F53" s="24">
         <v>1.0</v>
       </c>
-      <c r="G53" s="25"/>
+      <c r="G53" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26">
@@ -2646,12 +2740,14 @@
       <c r="F54" s="24">
         <v>1.0</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" s="26"/>
     </row>
@@ -2675,7 +2771,9 @@
       <c r="F55" s="24">
         <v>1.0</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="26">
@@ -2704,12 +2802,14 @@
       <c r="F56" s="24">
         <v>1.0</v>
       </c>
-      <c r="G56" s="25"/>
+      <c r="G56" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="26"/>
     </row>
@@ -2733,12 +2833,14 @@
       <c r="F57" s="24">
         <v>1.0</v>
       </c>
-      <c r="G57" s="25"/>
+      <c r="G57" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" s="26"/>
     </row>
@@ -2762,12 +2864,14 @@
       <c r="F58" s="24">
         <v>1.0</v>
       </c>
-      <c r="G58" s="25"/>
+      <c r="G58" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" s="26"/>
     </row>
@@ -2791,12 +2895,14 @@
       <c r="F59" s="24">
         <v>1.0</v>
       </c>
-      <c r="G59" s="25"/>
+      <c r="G59" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="26"/>
     </row>
@@ -2820,12 +2926,14 @@
       <c r="F60" s="24">
         <v>1.0</v>
       </c>
-      <c r="G60" s="25"/>
+      <c r="G60" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" s="26"/>
     </row>
@@ -2849,12 +2957,14 @@
       <c r="F61" s="24">
         <v>1.0</v>
       </c>
-      <c r="G61" s="25"/>
+      <c r="G61" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="26"/>
     </row>
@@ -2878,12 +2988,14 @@
       <c r="F62" s="24">
         <v>1.0</v>
       </c>
-      <c r="G62" s="25"/>
+      <c r="G62" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" s="26"/>
     </row>
@@ -2907,7 +3019,9 @@
       <c r="F63" s="24">
         <v>1.0</v>
       </c>
-      <c r="G63" s="25"/>
+      <c r="G63" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="26">
@@ -2936,12 +3050,14 @@
       <c r="F64" s="24">
         <v>1.0</v>
       </c>
-      <c r="G64" s="25"/>
+      <c r="G64" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="26"/>
     </row>
@@ -2965,7 +3081,9 @@
       <c r="F65" s="24">
         <v>1.0</v>
       </c>
-      <c r="G65" s="25"/>
+      <c r="G65" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="26">
@@ -2994,12 +3112,14 @@
       <c r="F66" s="24">
         <v>1.0</v>
       </c>
-      <c r="G66" s="25"/>
+      <c r="G66" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" s="26"/>
     </row>
@@ -3023,12 +3143,14 @@
       <c r="F67" s="24">
         <v>1.0</v>
       </c>
-      <c r="G67" s="25"/>
+      <c r="G67" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" s="26"/>
     </row>
@@ -3052,12 +3174,14 @@
       <c r="F68" s="24">
         <v>1.0</v>
       </c>
-      <c r="G68" s="25"/>
+      <c r="G68" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" s="26"/>
     </row>
@@ -3081,7 +3205,9 @@
       <c r="F69" s="24">
         <v>1.0</v>
       </c>
-      <c r="G69" s="25"/>
+      <c r="G69" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="26">
@@ -3110,12 +3236,14 @@
       <c r="F70" s="24">
         <v>1.0</v>
       </c>
-      <c r="G70" s="25"/>
+      <c r="G70" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" s="26"/>
     </row>
@@ -3139,12 +3267,14 @@
       <c r="F71" s="24">
         <v>1.0</v>
       </c>
-      <c r="G71" s="25"/>
+      <c r="G71" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71" s="26"/>
     </row>
@@ -3168,7 +3298,9 @@
       <c r="F72" s="24">
         <v>1.0</v>
       </c>
-      <c r="G72" s="25"/>
+      <c r="G72" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="26">
@@ -3197,7 +3329,9 @@
       <c r="F73" s="24">
         <v>0.0</v>
       </c>
-      <c r="G73" s="25"/>
+      <c r="G73" s="24">
+        <v>0.0</v>
+      </c>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="26">
@@ -3226,12 +3360,14 @@
       <c r="F74" s="24">
         <v>1.0</v>
       </c>
-      <c r="G74" s="25"/>
+      <c r="G74" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" s="26"/>
     </row>
@@ -3255,12 +3391,14 @@
       <c r="F75" s="24">
         <v>1.0</v>
       </c>
-      <c r="G75" s="25"/>
+      <c r="G75" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="26"/>
     </row>
@@ -3284,12 +3422,14 @@
       <c r="F76" s="24">
         <v>1.0</v>
       </c>
-      <c r="G76" s="25"/>
+      <c r="G76" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76" s="26"/>
     </row>
@@ -3313,12 +3453,14 @@
       <c r="F77" s="24">
         <v>1.0</v>
       </c>
-      <c r="G77" s="25"/>
+      <c r="G77" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="26"/>
     </row>
@@ -3342,12 +3484,14 @@
       <c r="F78" s="24">
         <v>1.0</v>
       </c>
-      <c r="G78" s="25"/>
+      <c r="G78" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" s="26"/>
     </row>
@@ -3371,12 +3515,14 @@
       <c r="F79" s="24">
         <v>1.0</v>
       </c>
-      <c r="G79" s="25"/>
+      <c r="G79" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" s="26"/>
     </row>
@@ -3400,12 +3546,14 @@
       <c r="F80" s="24">
         <v>1.0</v>
       </c>
-      <c r="G80" s="25"/>
+      <c r="G80" s="24">
+        <v>1.0</v>
+      </c>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K80" s="26"/>
     </row>
@@ -11793,6 +11941,186 @@
       <c r="I1000" s="34"/>
       <c r="J1000" s="35"/>
       <c r="K1000" s="35"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="E1001" s="34"/>
+      <c r="F1001" s="34"/>
+      <c r="G1001" s="34"/>
+      <c r="H1001" s="34"/>
+      <c r="I1001" s="34"/>
+      <c r="J1001" s="35"/>
+      <c r="K1001" s="35"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="E1002" s="34"/>
+      <c r="F1002" s="34"/>
+      <c r="G1002" s="34"/>
+      <c r="H1002" s="34"/>
+      <c r="I1002" s="34"/>
+      <c r="J1002" s="35"/>
+      <c r="K1002" s="35"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="E1003" s="34"/>
+      <c r="F1003" s="34"/>
+      <c r="G1003" s="34"/>
+      <c r="H1003" s="34"/>
+      <c r="I1003" s="34"/>
+      <c r="J1003" s="35"/>
+      <c r="K1003" s="35"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="E1004" s="34"/>
+      <c r="F1004" s="34"/>
+      <c r="G1004" s="34"/>
+      <c r="H1004" s="34"/>
+      <c r="I1004" s="34"/>
+      <c r="J1004" s="35"/>
+      <c r="K1004" s="35"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="E1005" s="34"/>
+      <c r="F1005" s="34"/>
+      <c r="G1005" s="34"/>
+      <c r="H1005" s="34"/>
+      <c r="I1005" s="34"/>
+      <c r="J1005" s="35"/>
+      <c r="K1005" s="35"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="E1006" s="34"/>
+      <c r="F1006" s="34"/>
+      <c r="G1006" s="34"/>
+      <c r="H1006" s="34"/>
+      <c r="I1006" s="34"/>
+      <c r="J1006" s="35"/>
+      <c r="K1006" s="35"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="E1007" s="34"/>
+      <c r="F1007" s="34"/>
+      <c r="G1007" s="34"/>
+      <c r="H1007" s="34"/>
+      <c r="I1007" s="34"/>
+      <c r="J1007" s="35"/>
+      <c r="K1007" s="35"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="E1008" s="34"/>
+      <c r="F1008" s="34"/>
+      <c r="G1008" s="34"/>
+      <c r="H1008" s="34"/>
+      <c r="I1008" s="34"/>
+      <c r="J1008" s="35"/>
+      <c r="K1008" s="35"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="E1009" s="34"/>
+      <c r="F1009" s="34"/>
+      <c r="G1009" s="34"/>
+      <c r="H1009" s="34"/>
+      <c r="I1009" s="34"/>
+      <c r="J1009" s="35"/>
+      <c r="K1009" s="35"/>
+    </row>
+    <row r="1010" ht="15.75" customHeight="1">
+      <c r="E1010" s="34"/>
+      <c r="F1010" s="34"/>
+      <c r="G1010" s="34"/>
+      <c r="H1010" s="34"/>
+      <c r="I1010" s="34"/>
+      <c r="J1010" s="35"/>
+      <c r="K1010" s="35"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="E1011" s="34"/>
+      <c r="F1011" s="34"/>
+      <c r="G1011" s="34"/>
+      <c r="H1011" s="34"/>
+      <c r="I1011" s="34"/>
+      <c r="J1011" s="35"/>
+      <c r="K1011" s="35"/>
+    </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="E1012" s="34"/>
+      <c r="F1012" s="34"/>
+      <c r="G1012" s="34"/>
+      <c r="H1012" s="34"/>
+      <c r="I1012" s="34"/>
+      <c r="J1012" s="35"/>
+      <c r="K1012" s="35"/>
+    </row>
+    <row r="1013" ht="15.75" customHeight="1">
+      <c r="E1013" s="34"/>
+      <c r="F1013" s="34"/>
+      <c r="G1013" s="34"/>
+      <c r="H1013" s="34"/>
+      <c r="I1013" s="34"/>
+      <c r="J1013" s="35"/>
+      <c r="K1013" s="35"/>
+    </row>
+    <row r="1014" ht="15.75" customHeight="1">
+      <c r="E1014" s="34"/>
+      <c r="F1014" s="34"/>
+      <c r="G1014" s="34"/>
+      <c r="H1014" s="34"/>
+      <c r="I1014" s="34"/>
+      <c r="J1014" s="35"/>
+      <c r="K1014" s="35"/>
+    </row>
+    <row r="1015" ht="15.75" customHeight="1">
+      <c r="E1015" s="34"/>
+      <c r="F1015" s="34"/>
+      <c r="G1015" s="34"/>
+      <c r="H1015" s="34"/>
+      <c r="I1015" s="34"/>
+      <c r="J1015" s="35"/>
+      <c r="K1015" s="35"/>
+    </row>
+    <row r="1016" ht="15.75" customHeight="1">
+      <c r="E1016" s="34"/>
+      <c r="F1016" s="34"/>
+      <c r="G1016" s="34"/>
+      <c r="H1016" s="34"/>
+      <c r="I1016" s="34"/>
+      <c r="J1016" s="35"/>
+      <c r="K1016" s="35"/>
+    </row>
+    <row r="1017" ht="15.75" customHeight="1">
+      <c r="E1017" s="34"/>
+      <c r="F1017" s="34"/>
+      <c r="G1017" s="34"/>
+      <c r="H1017" s="34"/>
+      <c r="I1017" s="34"/>
+      <c r="J1017" s="35"/>
+      <c r="K1017" s="35"/>
+    </row>
+    <row r="1018" ht="15.75" customHeight="1">
+      <c r="E1018" s="34"/>
+      <c r="F1018" s="34"/>
+      <c r="G1018" s="34"/>
+      <c r="H1018" s="34"/>
+      <c r="I1018" s="34"/>
+      <c r="J1018" s="35"/>
+      <c r="K1018" s="35"/>
+    </row>
+    <row r="1019" ht="15.75" customHeight="1">
+      <c r="E1019" s="34"/>
+      <c r="F1019" s="34"/>
+      <c r="G1019" s="34"/>
+      <c r="H1019" s="34"/>
+      <c r="I1019" s="34"/>
+      <c r="J1019" s="35"/>
+      <c r="K1019" s="35"/>
+    </row>
+    <row r="1020" ht="15.75" customHeight="1">
+      <c r="E1020" s="34"/>
+      <c r="F1020" s="34"/>
+      <c r="G1020" s="34"/>
+      <c r="H1020" s="34"/>
+      <c r="I1020" s="34"/>
+      <c r="J1020" s="35"/>
+      <c r="K1020" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/attendance-files/SIP/SIP (D) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (D) Attendance Sheet.xlsx
@@ -1286,13 +1286,11 @@
       <c r="G7" s="24">
         <v>1.0</v>
       </c>
-      <c r="H7" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26">
         <f t="shared" ref="J7:J80" si="1">SUM(E7:I7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="26"/>
     </row>
@@ -1319,13 +1317,11 @@
       <c r="G8" s="24">
         <v>1.0</v>
       </c>
-      <c r="H8" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="26"/>
     </row>
@@ -1352,13 +1348,11 @@
       <c r="G9" s="24">
         <v>1.0</v>
       </c>
-      <c r="H9" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="26"/>
     </row>
@@ -1385,13 +1379,11 @@
       <c r="G10" s="24">
         <v>1.0</v>
       </c>
-      <c r="H10" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="26"/>
     </row>
@@ -1418,13 +1410,11 @@
       <c r="G11" s="24">
         <v>0.0</v>
       </c>
-      <c r="H11" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="26"/>
     </row>
@@ -1451,13 +1441,11 @@
       <c r="G12" s="24">
         <v>1.0</v>
       </c>
-      <c r="H12" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="26"/>
     </row>
@@ -1484,13 +1472,11 @@
       <c r="G13" s="24">
         <v>1.0</v>
       </c>
-      <c r="H13" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="26"/>
     </row>
@@ -1517,9 +1503,7 @@
       <c r="G14" s="24">
         <v>1.0</v>
       </c>
-      <c r="H14" s="24">
-        <v>0.0</v>
-      </c>
+      <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26">
         <f t="shared" si="1"/>
@@ -1550,13 +1534,11 @@
       <c r="G15" s="24">
         <v>1.0</v>
       </c>
-      <c r="H15" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="26"/>
     </row>
@@ -1583,13 +1565,11 @@
       <c r="G16" s="24">
         <v>0.0</v>
       </c>
-      <c r="H16" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -1616,13 +1596,11 @@
       <c r="G17" s="24">
         <v>1.0</v>
       </c>
-      <c r="H17" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="26"/>
     </row>
@@ -1649,13 +1627,11 @@
       <c r="G18" s="24">
         <v>1.0</v>
       </c>
-      <c r="H18" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="26"/>
     </row>
@@ -1682,13 +1658,11 @@
       <c r="G19" s="24">
         <v>0.0</v>
       </c>
-      <c r="H19" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="26"/>
     </row>
@@ -1715,13 +1689,11 @@
       <c r="G20" s="24">
         <v>1.0</v>
       </c>
-      <c r="H20" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="26"/>
     </row>
@@ -1748,13 +1720,11 @@
       <c r="G21" s="24">
         <v>1.0</v>
       </c>
-      <c r="H21" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="26"/>
     </row>
@@ -1781,13 +1751,11 @@
       <c r="G22" s="24">
         <v>1.0</v>
       </c>
-      <c r="H22" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="26"/>
     </row>
@@ -1814,13 +1782,11 @@
       <c r="G23" s="24">
         <v>1.0</v>
       </c>
-      <c r="H23" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="26"/>
     </row>
@@ -1847,13 +1813,11 @@
       <c r="G24" s="24">
         <v>1.0</v>
       </c>
-      <c r="H24" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="26"/>
     </row>
@@ -1880,13 +1844,11 @@
       <c r="G25" s="24">
         <v>1.0</v>
       </c>
-      <c r="H25" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="26"/>
     </row>
@@ -1905,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="24">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="24">
         <v>1.0</v>
@@ -1913,13 +1875,11 @@
       <c r="G26" s="24">
         <v>1.0</v>
       </c>
-      <c r="H26" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" s="26"/>
     </row>
@@ -1946,13 +1906,11 @@
       <c r="G27" s="24">
         <v>0.0</v>
       </c>
-      <c r="H27" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="26"/>
     </row>
@@ -1979,13 +1937,11 @@
       <c r="G28" s="24">
         <v>1.0</v>
       </c>
-      <c r="H28" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="26"/>
     </row>
@@ -2012,13 +1968,11 @@
       <c r="G29" s="24">
         <v>1.0</v>
       </c>
-      <c r="H29" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" s="26"/>
     </row>
@@ -2045,13 +1999,11 @@
       <c r="G30" s="24">
         <v>1.0</v>
       </c>
-      <c r="H30" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="26"/>
     </row>
@@ -2078,13 +2030,11 @@
       <c r="G31" s="24">
         <v>1.0</v>
       </c>
-      <c r="H31" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="26"/>
     </row>
@@ -2111,13 +2061,11 @@
       <c r="G32" s="24">
         <v>1.0</v>
       </c>
-      <c r="H32" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32" s="26"/>
     </row>
@@ -2144,13 +2092,11 @@
       <c r="G33" s="24">
         <v>1.0</v>
       </c>
-      <c r="H33" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="26"/>
     </row>
@@ -2177,13 +2123,11 @@
       <c r="G34" s="24">
         <v>1.0</v>
       </c>
-      <c r="H34" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K34" s="26"/>
     </row>
@@ -2210,13 +2154,11 @@
       <c r="G35" s="24">
         <v>1.0</v>
       </c>
-      <c r="H35" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" s="26"/>
     </row>
@@ -2243,13 +2185,11 @@
       <c r="G36" s="24">
         <v>1.0</v>
       </c>
-      <c r="H36" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36" s="26"/>
     </row>
@@ -2276,13 +2216,11 @@
       <c r="G37" s="24">
         <v>1.0</v>
       </c>
-      <c r="H37" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" s="26"/>
     </row>
@@ -2309,13 +2247,11 @@
       <c r="G38" s="24">
         <v>1.0</v>
       </c>
-      <c r="H38" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" s="26"/>
     </row>
@@ -2342,13 +2278,11 @@
       <c r="G39" s="24">
         <v>1.0</v>
       </c>
-      <c r="H39" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" s="26"/>
     </row>
@@ -2375,13 +2309,11 @@
       <c r="G40" s="24">
         <v>1.0</v>
       </c>
-      <c r="H40" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40" s="26"/>
     </row>
@@ -2408,13 +2340,11 @@
       <c r="G41" s="24">
         <v>1.0</v>
       </c>
-      <c r="H41" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" s="26"/>
     </row>
@@ -2441,13 +2371,11 @@
       <c r="G42" s="24">
         <v>1.0</v>
       </c>
-      <c r="H42" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" s="26"/>
     </row>
@@ -2474,13 +2402,11 @@
       <c r="G43" s="24">
         <v>1.0</v>
       </c>
-      <c r="H43" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" s="26"/>
     </row>
@@ -2507,9 +2433,7 @@
       <c r="G44" s="24">
         <v>1.0</v>
       </c>
-      <c r="H44" s="24">
-        <v>0.0</v>
-      </c>
+      <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26">
         <f t="shared" si="1"/>
@@ -2540,13 +2464,11 @@
       <c r="G45" s="24">
         <v>1.0</v>
       </c>
-      <c r="H45" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K45" s="26"/>
     </row>
@@ -2573,13 +2495,11 @@
       <c r="G46" s="24">
         <v>1.0</v>
       </c>
-      <c r="H46" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" s="26"/>
     </row>
@@ -2606,9 +2526,7 @@
       <c r="G47" s="24">
         <v>1.0</v>
       </c>
-      <c r="H47" s="24">
-        <v>0.0</v>
-      </c>
+      <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26">
         <f t="shared" si="1"/>
@@ -2639,13 +2557,11 @@
       <c r="G48" s="24">
         <v>1.0</v>
       </c>
-      <c r="H48" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K48" s="26"/>
     </row>
@@ -2672,13 +2588,11 @@
       <c r="G49" s="24">
         <v>1.0</v>
       </c>
-      <c r="H49" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49" s="26"/>
     </row>
@@ -2705,13 +2619,11 @@
       <c r="G50" s="24">
         <v>1.0</v>
       </c>
-      <c r="H50" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K50" s="26"/>
     </row>
@@ -2738,13 +2650,11 @@
       <c r="G51" s="24">
         <v>0.0</v>
       </c>
-      <c r="H51" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="26"/>
     </row>
@@ -2771,13 +2681,11 @@
       <c r="G52" s="24">
         <v>1.0</v>
       </c>
-      <c r="H52" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" s="26"/>
     </row>
@@ -2804,13 +2712,11 @@
       <c r="G53" s="24">
         <v>0.0</v>
       </c>
-      <c r="H53" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" s="26"/>
     </row>
@@ -2837,13 +2743,11 @@
       <c r="G54" s="24">
         <v>1.0</v>
       </c>
-      <c r="H54" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K54" s="26"/>
     </row>
@@ -2870,13 +2774,11 @@
       <c r="G55" s="24">
         <v>0.0</v>
       </c>
-      <c r="H55" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="26"/>
     </row>
@@ -2903,13 +2805,11 @@
       <c r="G56" s="24">
         <v>1.0</v>
       </c>
-      <c r="H56" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" s="26"/>
     </row>
@@ -2936,13 +2836,11 @@
       <c r="G57" s="24">
         <v>1.0</v>
       </c>
-      <c r="H57" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" s="26"/>
     </row>
@@ -2969,13 +2867,11 @@
       <c r="G58" s="24">
         <v>1.0</v>
       </c>
-      <c r="H58" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" s="26"/>
     </row>
@@ -3002,13 +2898,11 @@
       <c r="G59" s="24">
         <v>1.0</v>
       </c>
-      <c r="H59" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" s="26"/>
     </row>
@@ -3035,13 +2929,11 @@
       <c r="G60" s="24">
         <v>1.0</v>
       </c>
-      <c r="H60" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" s="26"/>
     </row>
@@ -3060,7 +2952,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="24">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="24">
         <v>1.0</v>
@@ -3068,13 +2960,11 @@
       <c r="G61" s="24">
         <v>1.0</v>
       </c>
-      <c r="H61" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K61" s="26"/>
     </row>
@@ -3101,13 +2991,11 @@
       <c r="G62" s="24">
         <v>1.0</v>
       </c>
-      <c r="H62" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" s="26"/>
     </row>
@@ -3134,13 +3022,11 @@
       <c r="G63" s="24">
         <v>0.0</v>
       </c>
-      <c r="H63" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" s="26"/>
     </row>
@@ -3167,13 +3053,11 @@
       <c r="G64" s="24">
         <v>1.0</v>
       </c>
-      <c r="H64" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="26"/>
     </row>
@@ -3200,13 +3084,11 @@
       <c r="G65" s="24">
         <v>0.0</v>
       </c>
-      <c r="H65" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="26"/>
     </row>
@@ -3233,13 +3115,11 @@
       <c r="G66" s="24">
         <v>1.0</v>
       </c>
-      <c r="H66" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" s="26"/>
     </row>
@@ -3266,13 +3146,11 @@
       <c r="G67" s="24">
         <v>1.0</v>
       </c>
-      <c r="H67" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K67" s="26"/>
     </row>
@@ -3299,13 +3177,11 @@
       <c r="G68" s="24">
         <v>1.0</v>
       </c>
-      <c r="H68" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K68" s="26"/>
     </row>
@@ -3332,13 +3208,11 @@
       <c r="G69" s="24">
         <v>0.0</v>
       </c>
-      <c r="H69" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K69" s="26"/>
     </row>
@@ -3365,13 +3239,11 @@
       <c r="G70" s="24">
         <v>1.0</v>
       </c>
-      <c r="H70" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K70" s="26"/>
     </row>
@@ -3398,13 +3270,11 @@
       <c r="G71" s="24">
         <v>1.0</v>
       </c>
-      <c r="H71" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K71" s="26"/>
     </row>
@@ -3431,13 +3301,11 @@
       <c r="G72" s="24">
         <v>0.0</v>
       </c>
-      <c r="H72" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" s="26"/>
     </row>
@@ -3464,13 +3332,11 @@
       <c r="G73" s="24">
         <v>0.0</v>
       </c>
-      <c r="H73" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" s="26"/>
     </row>
@@ -3497,13 +3363,11 @@
       <c r="G74" s="24">
         <v>1.0</v>
       </c>
-      <c r="H74" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" s="26"/>
     </row>
@@ -3530,13 +3394,11 @@
       <c r="G75" s="24">
         <v>1.0</v>
       </c>
-      <c r="H75" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" s="26"/>
     </row>
@@ -3563,13 +3425,11 @@
       <c r="G76" s="24">
         <v>1.0</v>
       </c>
-      <c r="H76" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76" s="26"/>
     </row>
@@ -3596,13 +3456,11 @@
       <c r="G77" s="24">
         <v>1.0</v>
       </c>
-      <c r="H77" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" s="26"/>
     </row>
@@ -3629,13 +3487,11 @@
       <c r="G78" s="24">
         <v>1.0</v>
       </c>
-      <c r="H78" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K78" s="26"/>
     </row>
@@ -3662,13 +3518,11 @@
       <c r="G79" s="24">
         <v>1.0</v>
       </c>
-      <c r="H79" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" s="26"/>
     </row>
@@ -3695,13 +3549,11 @@
       <c r="G80" s="24">
         <v>1.0</v>
       </c>
-      <c r="H80" s="24">
-        <v>1.0</v>
-      </c>
+      <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K80" s="26"/>
     </row>
